--- a/outputs/DELHI4.xlsx
+++ b/outputs/DELHI4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks efficiently and prefers to gather comprehensive information before proceeding. Reading the available information would be a logical step for ABI to understand how to contribute to JabRef, aligning with their need to collect enough data to form a complete understanding of the task at hand.</t>
+Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before acting. Reading the available information is a logical step toward understanding how to contribute to Jabref, aligning with ABI's motivation to complete tasks and their comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a comprehensive layout of information regarding JabRef, including sections on features, installation, bug reports, and contributing. ABI will be motivated to read through this information to gather a complete understanding of how to contribute to JabRef. The structured and detailed nature of the content aligns with ABI's preference for comprehensive information processing, making it clear what to do at this step.</t>
+Why: The page provides a comprehensive amount of information about Jabref, including sections on features, installation, bug reports, suggestions, and contributing. This aligns with ABI's motivation to accomplish tasks and their preference for gathering comprehensive information before acting. The clear headings and structured layout make it easy for ABI to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: By reading the available information on the page, ABI will have a clear understanding that they are making progress toward their goal of finding something to contribute to JabRef. The page includes a dedicated section on "Contributing" which provides detailed instructions and relevant links on how to get involved. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information processing, ensuring they have all the information they need to proceed.</t>
+Why: After reading the available information on the page, ABI will know they are making progress toward their goal of finding something to contribute to Jabref. The page provides detailed sections on contributing, including guidelines and steps to follow, which aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The structured and clear presentation of information ensures that ABI gets all the necessary details to proceed.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides clear and explicit instructions on how to contribute, including a prominent "Learn how to help" link within the "Contributing" section. This directly aligns with ABI's goal of finding ways to contribute to JabRef. The detailed information and explicit call to action will help ABI understand what to do next, ensuring they feel confident in taking this action.</t>
+Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to Jabref. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The page provides a clear call to action, making it easy for ABI to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Learn how to help," ABI lands on a page specifically designed to guide users on how to contribute to JabRef. The page is well-structured and provides detailed options catering to different types of contributors (students, new to open source, wanting high impact, etc.). This clear segmentation and comprehensive information will make ABI confident that they are on the right path and have all the necessary information to proceed, aligning with their motivations and preference for a thorough understanding of their tasks.</t>
+Why: After clicking "Learn how to help," ABI lands on a page that provides detailed and categorized information on how to contribute to Jabref. The page is well-organized, offering different paths for various types of contributors (e.g., students, new to open source, looking for high-impact contributions). This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The clear and structured layout ensures that ABI knows they are making progress toward their goal and provides all the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is well-organized and provides clear instructions and options for different types of contributors (students, new to open source, looking for high-impact contributions, etc.). This structure aligns with ABI's motivation to effectively find ways to contribute and their preference for comprehensive information. The clear categorization and detailed guidance will help ABI understand exactly what to do next.</t>
+Why: The page is clearly structured with headings and sections that cater to different types of contributors, such as students, new open-source contributors, and those looking for high-impact projects. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The clear and organized layout makes it easy for ABI to know what to do at this step and provides the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: If ABI reads the page, they will know they are making progress toward their goal of finding something to contribute to JabRef. The page provides clear, segmented instructions for various types of contributors, such as students, newcomers, and those looking for high-impact contributions. This detailed and organized information aligns with ABI's motivations and their preference for comprehensive information processing, ensuring they have all the necessary information to proceed confidently.</t>
+Why: After reading the page, ABI will know they are making progress toward their goal of finding something to contribute to Jabref. The page provides detailed and categorized information for different types of contributors, such as students, new open-source contributors, and those looking for high-impact projects. This aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information. The clear and organized layout ensures that ABI gets all the necessary details to proceed, confirming that they did the right thing and are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly indicates the next step for someone looking to contribute by providing a link labeled "list of good first issues." This is a straightforward call to action that aligns with ABI's goal of finding something to contribute to. The page is well-organized and the instructions are clear, making it easy for ABI to understand what to do next. This approach aligns with ABI's motivation to accomplish tasks and their preference for comprehensive information processing.</t>
+Why: The page clearly lists "list of good first issues" as a clickable link under multiple sections, such as for students and new open-source contributors. This aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. The clear labeling and context provided make it easy for ABI to know what to do at this step and that clicking the link will help them find suitable issues to contribute to.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon clicking the "list of good first issues," ABI is directed to a GitHub page with a list of issues labeled "good first issue." This is exactly what ABI is looking for, as it provides a range of tasks that are suitable for newcomers. The clear labeling and the organization of the issues will help ABI understand that they are making progress toward their goal and provide them with all the necessary information to choose an appropriate task to contribute to. This aligns with ABI's motivation and preference for comprehensive information processing.</t>
+Why: After clicking on the "list of good first issues," ABI lands on a page that lists various issues labeled as "good first issue." This page provides a clear and organized list of potential contributions, which aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. The detailed list of issues, along with labels and descriptions, ensures that ABI knows they did the right thing and are making progress toward their goal. The page provides all the necessary information to choose an issue to work on.</t>
         </is>
       </c>
     </row>
@@ -507,16 +507,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is well-organized, with each issue clearly labeled as a "good first issue" alongside additional tags indicating the type of issue (e.g., bug, enhancement). This structure makes it easy for ABI to scan through the options and decide which issue they want to know more about. ABI will understand that clicking on an issue will provide more detailed information about it, aligning with their motivation to contribute and their preference for comprehensive information processing. The clear layout and labeling effectively guide ABI on what to do next.</t>
+Why: The page provides a clear list of issues with labels and brief descriptions, making it easy for ABI to read the options and decide which one they want to know more about. This aligns with ABI's motivation to find something to contribute to and their preference for comprehensive information. The structured layout and clear labeling ensure that ABI knows what to do at this step and that the page is good enough for them to take this action.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: When ABI clicks on an issue to learn more, they are directed to a detailed page that provides comprehensive information about the issue, including descriptions, comments, and discussions. This detailed information allows ABI to understand the specifics of the issue, the progress made so far, and what needs to be done, which aligns with their motivation to contribute effectively and their preference for comprehensive information. The clear and extensive details on the issue page will make ABI confident that they are making progress toward their goal and have all the necessary information to proceed.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page provides detailed information about the issue, including comments and discussions, the amount of information and technical details might be overwhelming for ABI. ABI prefers comprehensive information but also needs it to be easily digestible. The extensive and technical nature of the content might make it difficult for ABI to know if they are making progress toward their goal and if they have all the information they need. Additionally, ABI's low computer self-efficacy might make them doubt their understanding of the technical details presented.</t>
         </is>
       </c>
     </row>

--- a/outputs/DELHI4.xlsx
+++ b/outputs/DELHI4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The subgoal of reading the available information aligns with Abi's motivations to accomplish tasks and gather comprehensive information. The page contains detailed information about JabRef, including features, installation, and contributing guidelines, which Abi would consider necessary to understand before contributing.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before acting. The page provides detailed information about JabRef, including features, installation, and contributing guidelines. This aligns with ABI's need to read and understand all available information to form a complete understanding of how to contribute to JabRef.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page provides a comprehensive amount of information about JabRef, including features, installation, and contributing guidelines. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. The information is well-organized and detailed, making it clear for Abi to understand what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides comprehensive information about JabRef, including sections on features, installation, and contributing. This aligns with ABI's motivation to accomplish tasks and her preference for gathering detailed information before taking action. The clear headings and structured layout make it easy for ABI to know what to do at this step, which is to read the available information to understand how to contribute to JabRef.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page provides detailed and comprehensive information about contributing to JabRef, including specific guidelines and steps. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. By reading the available information, Abi will know she is making progress toward her goal and will have the necessary details to contribute effectively.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides detailed and structured information about contributing to JabRef, including a dedicated "Contributing" section. This aligns with ABI's motivation to accomplish tasks and her preference for comprehensive information. By reading through the available information, ABI will know she is making progress toward her goal of finding something to contribute to JabRef. The clear and detailed instructions will help her feel confident that she is on the right track and has the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to Abi's goal of finding something to contribute to JabRef. The page provides sufficient context and information, making it clear that clicking this link will provide further details on how to contribute. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Contributing" section on the page clearly includes a link labeled "Learn how to help," which directly indicates what ABI should do next to find out more about contributing to JabRef. This aligns with ABI's motivation to accomplish tasks and her preference for comprehensive information. The clear labeling and context provided on the page make it easy for ABI to understand that clicking this link is the next step in gathering the necessary information to contribute.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking "Learn how to help," Abi lands on a page that provides clear and detailed information about various ways to contribute to JabRef. The page is well-organized, with specific sections for different types of contributors (e.g., students, new to open source, lecturers). This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. Abi will know she is making progress toward her goal and will have access to all the necessary information to contribute effectively.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page ABI lands on after clicking "Learn how to help" provides detailed and structured information about various ways to contribute to JabRef. It includes specific sections for different types of contributors (e.g., students, new to open source, lecturers) and links to further resources like "good first issues" and "CONTRIBUTING.md." This aligns with ABI's motivation to accomplish tasks and her preference for comprehensive information. The clear and organized layout will help ABI know that she is making progress toward her goal and has access to all the necessary information to contribute effectively.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page is clearly titled "Contribute to JabRef" and provides detailed sections for different types of contributors, such as students, new to open source, and lecturers. This aligns with Abi's motivation to find something to contribute to and her comprehensive information processing style. The page is well-organized and provides clear instructions, making it easy for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page is well-structured and provides clear, detailed information about various ways to contribute to JabRef. It includes specific sections for different types of contributors, such as students, new open-source contributors, and lecturers. Each section provides actionable links and resources, making it easy for ABI to understand what to do next. This aligns with ABI's motivation to accomplish tasks and her preference for comprehensive information, ensuring she knows what to do at this step and that the page is good enough for her to take this action.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page provides clear and detailed information about various ways to contribute to JabRef, tailored to different types of contributors. This aligns with Abi's motivation to find something to contribute to and her comprehensive information processing style. By reading the page, Abi will know she is making progress toward her goal and will have access to all the necessary information to contribute effectively. The structured layout and specific instructions ensure that Abi can easily understand the next steps.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides clear, detailed, and structured information about various ways to contribute to JabRef, tailored to different types of contributors. Each section includes actionable links and resources, such as lists of good first issues, university projects, and documentation for developers. This aligns with ABI's motivation to accomplish tasks and her preference for comprehensive information. By reading the page, ABI will know she is making progress toward her goal and has access to all the necessary information to contribute effectively. The clear organization and specific guidance will help ABI feel confident that she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The link "list of good first issues" is clearly labeled and contextually placed under sections relevant to different types of contributors. This aligns with Abi's motivation to find something to contribute to and her comprehensive information processing style. The page provides sufficient context, making it clear that clicking this link will lead to a list of issues suitable for new contributors.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly indicates that clicking on the "list of good first issues" is a step toward finding something to contribute to JabRef. This aligns with ABI's motivation to accomplish tasks and her preference for comprehensive information. The link is prominently displayed and contextually relevant, making it easy for ABI to understand that clicking it will provide her with a list of issues suitable for new contributors. The clear labeling and context ensure that ABI knows what to do at this step and that the page is good enough for her to take this action.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking on the "list of good first issues," Abi lands on a page that lists specific issues labeled as "good first issue." This page provides a clear and organized list of tasks that are suitable for new contributors, which aligns with Abi's motivation to find something to contribute to and her comprehensive information processing style. The detailed list of issues ensures that Abi will know she is making progress toward her goal and will have the necessary information to choose an appropriate task to contribute to.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "list of good first issues," ABI lands on a page that clearly lists various issues labeled as "good first issue." This page provides detailed information about each issue, including descriptions, labels, and other relevant details. This aligns with ABI's motivation to accomplish tasks and her preference for comprehensive information. The clear labeling and detailed descriptions will help ABI know that she did the right thing and is making progress toward her goal of finding something to contribute to JabRef. The page provides all the necessary information for ABI to choose an issue to work on, ensuring she feels confident in her progress.</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page provides a clear and organized list of issues labeled as "good first issue," which are suitable for new contributors. Each issue is clickable, allowing Abi to read more details about the specific issue. This aligns with Abi's motivation to find something to contribute to and her comprehensive information processing style. The page is well-structured, making it easy for Abi to know what to do at this step and to take the action of clicking on an issue to learn more.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a clear list of issues labeled as "good first issue," each with a brief description and relevant tags. This aligns with ABI's motivation to find something to contribute to and her preference for comprehensive information. The structured layout and detailed descriptions make it easy for ABI to understand what each issue entails and decide which one she wants to know more about. The page is well-organized and provides sufficient information for ABI to take the next step confidently.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: The page Abi lands on after clicking an issue contains a lot of technical details and discussions, which might be overwhelming for her. Given Abi's low confidence in doing unfamiliar computing tasks and her comprehensive information processing style, she might find it difficult to determine if she is making progress toward her goal. The extensive and technical nature of the information might make it challenging for Abi to feel confident that she has all the information she needs to contribute effectively.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page ABI lands on after clicking an issue provides detailed information about the selected issue, including a description, comments, and relevant tags. This aligns with ABI's motivation to find something to contribute to and her preference for comprehensive information. The detailed descriptions, comments, and visual aids (such as graphs) will help ABI understand the issue thoroughly and confirm that she is making progress toward her goal. The page provides all the necessary information for ABI to decide whether this is an issue she wants to work on, ensuring she feels confident in her progress.</t>
         </is>
       </c>
     </row>
